--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\codingproj\ucl\comp0254_defi\AS_2_solidity\hw_main\defi-lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE373E88-E123-4C61-9712-956202A00692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E20E6BA-BF8D-46C8-853D-CA952E01E0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{216AF76A-C9D8-46D3-AAF9-9A14F738D282}"/>
+    <workbookView xWindow="8783" yWindow="2017" windowWidth="19312" windowHeight="12923" activeTab="2" xr2:uid="{216AF76A-C9D8-46D3-AAF9-9A14F738D282}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="sushiswap" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,8 +63,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000000000000000_);[Red]\(0.00000000000000000\)"/>
-    <numFmt numFmtId="180" formatCode="0.00000_);[Red]\(0.00000\)"/>
-    <numFmt numFmtId="184" formatCode="0.000000000_);[Red]\(0.000000000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="179" formatCode="0.000000000_);[Red]\(0.000000000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -139,10 +140,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -151,10 +152,10 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +800,423 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="293807423"/>
+        <c:axId val="293804543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="293807423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00000_);[Red]\(0.00000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293804543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="293804543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.000000000_);[Red]\(0.000000000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293807423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-HK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12824306929591039"/>
+          <c:y val="0.10709977104113758"/>
+          <c:w val="0.83328689075212103"/>
+          <c:h val="0.82614473747035699"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sushiswap!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21938619843465804"/>
+                  <c:y val="0.1252711923368128"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-HK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sushiswap!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000_);[Red]\(0.00000\)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sushiswap!$D$3:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000_);[Red]\(0.000000000\)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>54.252700614352598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.313934488374798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.763225930906103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.593581862319795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.750844895664898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.797898339333102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.828618240260894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.842997229359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.844057040537606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.842730724713604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.841028744451904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.822704670162594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.788017565632003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.874341149610999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0690-4FF3-BAFA-6CAB70659797}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1038,6 +1455,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1555,6 +2012,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2136,6 +3109,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>73818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADE63CF-33E2-453A-B5F5-F9F683F0589B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2577,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77198B46-A2A0-4951-AEF6-275D0ABE98AA}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B2:D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -2786,4 +3802,197 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41D2CFB-53EF-4339-86C0-1DF17CA9F876}">
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="7"/>
+    <col min="2" max="2" width="18.73046875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.06640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.59765625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
+        <v>1506187000000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
+        <v>54.252700614352598</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
+        <v>1807424000000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6">
+        <v>60.313934488374798</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
+        <v>2108662000000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6">
+        <v>64.763225930906103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
+        <v>2409899000000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6">
+        <v>67.593581862319795</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
+        <v>2681013000000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>89</v>
+      </c>
+      <c r="D7" s="6">
+        <v>68.750844895664898</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="4">
+        <v>2711137000000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>90</v>
+      </c>
+      <c r="D8" s="6">
+        <v>68.797898339333102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="4">
+        <v>2741261000000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>91</v>
+      </c>
+      <c r="D9" s="6">
+        <v>68.828618240260894</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="4">
+        <v>2771384000000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>92</v>
+      </c>
+      <c r="D10" s="6">
+        <v>68.842997229359</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="4">
+        <v>2786446000000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>92.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>68.844057040537606</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="4">
+        <v>2795483000000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>92.8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>68.842730724713604</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
+        <v>2801508000000</v>
+      </c>
+      <c r="C13" s="9">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10">
+        <v>68.841028744451904</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="4">
+        <v>2831632000000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>94</v>
+      </c>
+      <c r="D14" s="6">
+        <v>68.822704670162594</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="4">
+        <v>2861756000000</v>
+      </c>
+      <c r="C15" s="5">
+        <v>95</v>
+      </c>
+      <c r="D15" s="6">
+        <v>68.788017565632003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="4">
+        <v>3012374000000</v>
+      </c>
+      <c r="C16" s="5">
+        <v>100</v>
+      </c>
+      <c r="D16" s="6">
+        <v>17.874341149610999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D16">
+    <sortCondition ref="C3:C16"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>